--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1E63A-54CF-47C1-8BA3-824873F617E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A1B509-9A90-41DE-8F41-F69EED540F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="1812" windowWidth="13296" windowHeight="9408" activeTab="1" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11325" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_r" sheetId="2" r:id="rId2"/>
+    <sheet name="Rack_Hamba_r" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>Units</t>
   </si>
@@ -117,11 +121,17 @@
   <si>
     <t>Rack_Sedan_HambaLG_r</t>
   </si>
+  <si>
+    <t>Rack_Sedan_Hamba_r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,11 +231,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -611,24 +667,24 @@
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
@@ -636,7 +692,7 @@
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -656,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -670,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -684,7 +740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,7 +773,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -761,7 +817,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -805,7 +861,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -843,7 +899,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -855,8 +911,8 @@
       <c r="E8" s="5"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>10</v>
+      <c r="H8" s="19">
+        <v>50</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -879,7 +935,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -980,7 +1036,7 @@
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -1058,19 +1114,19 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1138,108 +1194,108 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="H14" s="6">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="H26" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:B22 A4:B10">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B24">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1254,25 +1310,25 @@
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
@@ -1280,7 +1336,7 @@
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1300,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1328,7 +1384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1417,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1461,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1449,7 +1505,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -1487,7 +1543,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -1499,8 +1555,8 @@
       <c r="E8" s="5"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>10</v>
+      <c r="H8" s="19">
+        <v>50</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1523,7 +1579,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1680,7 @@
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -1702,19 +1758,19 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1782,108 +1838,1076 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="H14" s="6">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="H26" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:B24">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B22 A4:B10">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E10">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF096D6C-E506-4D46-B578-D6AD8CD9F9CF}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.31</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.31</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <v>19.792000000000002</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19">
+        <v>50</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="22">
+        <f t="shared" ref="H9:AB9" si="0">H14*$H$16</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="0"/>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="0"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="0"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="0"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="0"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="0"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O9" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W9" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X9" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y9" s="22">
+        <f t="shared" si="0"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="0"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB9" s="22">
+        <f t="shared" si="0"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="20">
+        <f t="shared" ref="H10:AB10" si="1">H12*$H$13</f>
+        <v>-0.18</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.1638</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.14616000000000001</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.12672</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.10668000000000001</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="1"/>
+        <v>-8.7719999999999992E-2</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="1"/>
+        <v>-7.0679999999999993E-2</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="1"/>
+        <v>-5.4719999999999998E-2</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="1"/>
+        <v>-3.8159999999999999E-2</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="1"/>
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="R10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="1"/>
+        <v>3.8159999999999999E-2</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="1"/>
+        <v>5.4719999999999998E-2</v>
+      </c>
+      <c r="V10" s="20">
+        <f t="shared" si="1"/>
+        <v>7.0679999999999993E-2</v>
+      </c>
+      <c r="W10" s="20">
+        <f t="shared" si="1"/>
+        <v>8.7780000000000011E-2</v>
+      </c>
+      <c r="X10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.10668000000000001</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.12672</v>
+      </c>
+      <c r="Z10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.14616000000000001</v>
+      </c>
+      <c r="AA10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1638</v>
+      </c>
+      <c r="AB10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="18"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="19">
+        <v>-0.3</v>
+      </c>
+      <c r="I12">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="J12">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="K12">
+        <v>-0.2112</v>
+      </c>
+      <c r="L12">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="M12">
+        <v>-0.1462</v>
+      </c>
+      <c r="N12">
+        <v>-0.1178</v>
+      </c>
+      <c r="O12">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="P12">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="Q12">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T12">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="U12">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V12">
+        <v>0.1178</v>
+      </c>
+      <c r="W12">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="X12">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>0.2112</v>
+      </c>
+      <c r="Z12">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="H14" s="19">
+        <v>-180</v>
+      </c>
+      <c r="I14">
+        <v>-162</v>
+      </c>
+      <c r="J14">
+        <v>-144</v>
+      </c>
+      <c r="K14">
+        <v>-126</v>
+      </c>
+      <c r="L14">
+        <v>-108</v>
+      </c>
+      <c r="M14">
+        <v>-90</v>
+      </c>
+      <c r="N14">
+        <v>-72</v>
+      </c>
+      <c r="O14">
+        <v>-54</v>
+      </c>
+      <c r="P14">
+        <v>-36</v>
+      </c>
+      <c r="Q14">
+        <v>-18</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>18</v>
+      </c>
+      <c r="T14">
+        <v>36</v>
+      </c>
+      <c r="U14">
+        <v>54</v>
+      </c>
+      <c r="V14">
+        <v>72</v>
+      </c>
+      <c r="W14">
+        <v>90</v>
+      </c>
+      <c r="X14">
+        <v>108</v>
+      </c>
+      <c r="Y14">
+        <v>126</v>
+      </c>
+      <c r="Z14">
+        <v>144</v>
+      </c>
+      <c r="AA14">
+        <v>162</v>
+      </c>
+      <c r="AB14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="18"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="18"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="18"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="18"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="18"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="18"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="18"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A21:B22 A4:B10">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B24">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B22 A4:B10">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E10">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A1B509-9A90-41DE-8F41-F69EED540F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F46D6D0-AF3A-49B2-A362-716D88DE2955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11325" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="32085" yWindow="1755" windowWidth="27090" windowHeight="12915" tabRatio="839" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,7 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -654,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +662,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F042468-6E33-4D03-9D10-CE47EAE6C32C}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
@@ -671,12 +670,12 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -787,14 +786,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12">
-        <v>0.3</v>
+      <c r="F5" s="17">
+        <v>0.15379999999999999</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.50249999999999995</v>
+      <c r="H5" s="17">
+        <v>0.24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -829,14 +828,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.5</v>
+      <c r="F6" s="17">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.24</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -911,7 +910,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>50</v>
       </c>
       <c r="I8"/>
@@ -1115,19 +1114,19 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="12">
@@ -1195,83 +1194,83 @@
       </c>
     </row>
     <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="H14" s="6">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:B22 A4:B10">
@@ -1306,7 +1305,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C0676-3C82-4D6A-B548-A54A00E78AEC}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
@@ -1315,12 +1314,12 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -1431,14 +1430,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12">
-        <v>0.3</v>
+      <c r="F5" s="17">
+        <v>-0.13</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.50249999999999995</v>
+      <c r="H5" s="17">
+        <v>0.24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1473,14 +1472,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.5</v>
+      <c r="F6" s="17">
+        <v>-0.13</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.24</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -1555,7 +1554,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>50</v>
       </c>
       <c r="I8"/>
@@ -1759,19 +1758,19 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="12">
@@ -1839,83 +1838,83 @@
       </c>
     </row>
     <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="H14" s="6">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:B24">
@@ -1950,20 +1949,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF096D6C-E506-4D46-B578-D6AD8CD9F9CF}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -2074,14 +2073,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="17">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
-        <v>0.31</v>
+      <c r="H5" s="17">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -2116,14 +2115,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="18">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.32</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.31</v>
+      <c r="F6" s="17">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.439</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -2160,9 +2159,9 @@
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
         <v>19.792000000000002</v>
       </c>
       <c r="I7"/>
@@ -2196,9 +2195,9 @@
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
         <v>50</v>
       </c>
       <c r="I8"/>
@@ -2238,87 +2237,87 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f t="shared" ref="H9:AB9" si="0">H14*$H$16</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <f t="shared" si="0"/>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="21">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="21">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="21">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="21">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="21">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="21">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="21">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9" s="21">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="21">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="21">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AA9" s="21">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB9" s="22">
+      <c r="AB9" s="21">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
@@ -2337,96 +2336,96 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f t="shared" ref="H10:AB10" si="1">H12*$H$13</f>
         <v>-0.18</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" si="1"/>
         <v>-0.1638</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <f t="shared" si="1"/>
         <v>-0.14616000000000001</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <f t="shared" si="1"/>
         <v>-0.12672</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <f t="shared" si="1"/>
         <v>-0.10668000000000001</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <f t="shared" si="1"/>
         <v>-8.7719999999999992E-2</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <f t="shared" si="1"/>
         <v>-7.0679999999999993E-2</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <f t="shared" si="1"/>
         <v>-5.4719999999999998E-2</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <f t="shared" si="1"/>
         <v>-3.8159999999999999E-2</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <f t="shared" si="1"/>
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="19">
         <f t="shared" si="1"/>
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="19">
         <f t="shared" si="1"/>
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="19">
         <f t="shared" si="1"/>
         <v>5.4719999999999998E-2</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="19">
         <f t="shared" si="1"/>
         <v>7.0679999999999993E-2</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="19">
         <f t="shared" si="1"/>
         <v>8.7780000000000011E-2</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="19">
         <f t="shared" si="1"/>
         <v>0.10668000000000001</v>
       </c>
-      <c r="Y10" s="20">
+      <c r="Y10" s="19">
         <f t="shared" si="1"/>
         <v>0.12672</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="19">
         <f t="shared" si="1"/>
         <v>0.14616000000000001</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="19">
         <f t="shared" si="1"/>
         <v>0.1638</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="19">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="17"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -2449,10 +2448,10 @@
       <c r="AB11"/>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>-0.3</v>
       </c>
       <c r="I12">
@@ -2517,7 +2516,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13">
@@ -2546,8 +2545,8 @@
       <c r="AB13"/>
     </row>
     <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="H14" s="19">
+      <c r="A14" s="14"/>
+      <c r="H14" s="18">
         <v>-180</v>
       </c>
       <c r="I14">
@@ -2612,7 +2611,7 @@
       </c>
     </row>
     <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15"/>
@@ -2638,7 +2637,7 @@
       <c r="AB15"/>
     </row>
     <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16">
@@ -2667,15 +2666,15 @@
       <c r="AB16"/>
     </row>
     <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
@@ -2693,14 +2692,14 @@
       <c r="AB17"/>
     </row>
     <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
@@ -2718,15 +2717,15 @@
       <c r="AB18"/>
     </row>
     <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
@@ -2744,15 +2743,15 @@
       <c r="AB19"/>
     </row>
     <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="17"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
@@ -2770,16 +2769,16 @@
       <c r="AB20"/>
     </row>
     <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="17"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
@@ -2797,11 +2796,11 @@
       <c r="AB21"/>
     </row>
     <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="17"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2824,15 +2823,15 @@
       <c r="AB22"/>
     </row>
     <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="17"/>
       <c r="I23"/>
       <c r="J23"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -2850,15 +2849,15 @@
       <c r="AB23"/>
     </row>
     <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
@@ -2876,14 +2875,14 @@
       <c r="AB24"/>
     </row>
     <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:B22 A4:B10">
@@ -2912,5 +2911,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F46D6D0-AF3A-49B2-A362-716D88DE2955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C050083-C073-41A3-BEFA-516A84E57AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32085" yWindow="1755" windowWidth="27090" windowHeight="12915" tabRatio="839" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="180" yWindow="945" windowWidth="25575" windowHeight="13875" tabRatio="839" activeTab="2" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
   <si>
     <t>Units</t>
   </si>
@@ -80,12 +80,6 @@
     <t>sOutboard</t>
   </si>
   <si>
-    <t>HPInboardTrackRod</t>
-  </si>
-  <si>
-    <t>Also in Linkage</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -123,6 +117,9 @@
   </si>
   <si>
     <t>Rack_Sedan_Hamba_r</t>
+  </si>
+  <si>
+    <t>Must  be consistent with linkage trackrod inboard point</t>
   </si>
 </sst>
 </file>
@@ -196,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -209,9 +206,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -219,19 +215,14 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -241,53 +232,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -353,6 +304,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -365,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -511,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,16 +622,16 @@
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -717,11 +673,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -731,48 +686,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -780,276 +714,197 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="6">
         <v>0.24</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="20">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="20">
         <v>0.65</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="20">
         <v>0.24</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="18">
-        <v>50</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <f>H13*$H$14</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f t="shared" ref="I9:AB9" si="0">I13*$H$14</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="11">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="11">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="11">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="11">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="11">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="11">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="11">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>-0.3</v>
       </c>
       <c r="I10">
@@ -1113,23 +968,20 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="12">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="11">
         <v>-180</v>
       </c>
       <c r="I13">
@@ -1193,108 +1045,85 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="H14" s="6">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H14">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="H26" s="15"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:B22 A4:B10">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="A25:A26">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B24">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="A4:B10 A21:B24">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="E5 E7:E10">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1309,17 +1138,17 @@
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D33" sqref="D33"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection activeCell="L3" sqref="L3"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -1361,11 +1190,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1375,48 +1203,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1424,276 +1231,197 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>-0.13</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="6">
         <v>0.24</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6">
         <v>-0.13</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="6">
         <v>0.65</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="6">
         <v>0.24</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="18">
-        <v>50</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <f>H13*$H$14</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f t="shared" ref="I9:AB9" si="0">I13*$H$14</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="11">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="11">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="11">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="11">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="11">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="11">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="11">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>-0.3</v>
       </c>
       <c r="I10">
@@ -1757,23 +1485,20 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="12">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="11">
         <v>-180</v>
       </c>
       <c r="I13">
@@ -1837,108 +1562,85 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="H14" s="6">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H14">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="H26" s="15"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A23:B24">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="A25:A26">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+  <conditionalFormatting sqref="A4:B10 A21:B24">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B22 A4:B10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="E5 E7:E10">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1953,16 +1655,17 @@
   </sheetPr>
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -2004,11 +1707,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2018,48 +1720,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2067,391 +1748,290 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="6">
         <v>0.439</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18">
-        <v>50</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="21">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17">
         <f t="shared" ref="H9:AB9" si="0">H14*$H$16</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="17">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="17">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="17">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="17">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="17">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="17">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="17">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="17">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="17">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="17">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="17">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="17">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="19">
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15">
         <f t="shared" ref="H10:AB10" si="1">H12*$H$13</f>
         <v>-0.18</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <f t="shared" si="1"/>
         <v>-0.1638</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>-0.14616000000000001</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <f t="shared" si="1"/>
         <v>-0.12672</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>-0.10668000000000001</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="15">
         <f t="shared" si="1"/>
         <v>-8.7719999999999992E-2</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="15">
         <f t="shared" si="1"/>
         <v>-7.0679999999999993E-2</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="15">
         <f t="shared" si="1"/>
         <v>-5.4719999999999998E-2</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="15">
         <f t="shared" si="1"/>
         <v>-3.8159999999999999E-2</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="15">
         <f t="shared" si="1"/>
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="15">
         <f t="shared" si="1"/>
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="15">
         <f t="shared" si="1"/>
         <v>5.4719999999999998E-2</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="15">
         <f t="shared" si="1"/>
         <v>7.0679999999999993E-2</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="15">
         <f t="shared" si="1"/>
         <v>8.7780000000000011E-2</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="15">
         <f t="shared" si="1"/>
         <v>0.10668000000000001</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="15">
         <f t="shared" si="1"/>
         <v>0.12672</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="15">
         <f t="shared" si="1"/>
         <v>0.14616000000000001</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="15">
         <f t="shared" si="1"/>
         <v>0.1638</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="15">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="17"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="18">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="11">
         <v>-0.3</v>
       </c>
       <c r="I12">
@@ -2515,38 +2095,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="H14" s="18">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H14" s="11">
         <v>-180</v>
       </c>
       <c r="I14">
@@ -2610,302 +2168,99 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-    </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="17"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="17"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="17"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-    </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="17"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-    </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="17"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="17"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-    </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="H26" s="15"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:B22 A4:B10">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B24">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A25:A26">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:B10 A21:B24">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10">
+  <conditionalFormatting sqref="E5 E7:E10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
